--- a/perceptron/perceptron.xlsx
+++ b/perceptron/perceptron.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isiswauitmedu-my.sharepoint.com/personal/2021119947_isiswa_uitm_edu_my/Documents/Sem 4/ISP560/intro-to-machine-learning/perceptron/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{CC109C8B-29DC-CF46-9515-17E0F0A61A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41644338-A8D3-9841-A3C7-B68EA883EB9C}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{CC109C8B-29DC-CF46-9515-17E0F0A61A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8776C886-C667-FB42-9DC0-99FC1A4688D6}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5940" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{C532F2F6-FEB9-5F4B-A739-20C274AE46DD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C532F2F6-FEB9-5F4B-A739-20C274AE46DD}"/>
   </bookViews>
   <sheets>
     <sheet name="AND operation" sheetId="1" r:id="rId1"/>
     <sheet name="OR operation" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Epoch</t>
   </si>
@@ -102,6 +102,18 @@
   <si>
     <t>Learning rate</t>
   </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>What we have learnt so far?</t>
+  </si>
+  <si>
+    <t>1. Perceptron can do weight training (learning process)</t>
+  </si>
+  <si>
+    <t>2. Perceptron is a prove of concept that machine can learn!!</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -181,30 +199,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -221,6 +227,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -555,84 +583,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="5"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="4" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -808,58 +836,58 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" ref="E6" si="7">O5</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <f t="shared" ref="F6" si="8">P5</f>
         <v>-0.1</v>
       </c>
-      <c r="G6" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="G6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="5">
         <v>-1</v>
       </c>
-      <c r="I6" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="I6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>-0.10000000000000003</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="5">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="5">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="5">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -877,48 +905,48 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <f t="shared" ref="E7:E10" si="9">O6</f>
         <v>0.3</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <f t="shared" ref="F7:F10" si="10">P6</f>
         <v>0</v>
       </c>
-      <c r="G7" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="G7" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="6">
         <v>-1</v>
       </c>
-      <c r="I7" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" ref="J7:J10" si="11">(B7*E7) + (C7*F7)+(G7*H7)</f>
         <v>-0.2</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="6">
         <f t="shared" ref="L7:L10" si="12">D7 - K7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="6">
         <f t="shared" ref="M7:M10" si="13">I7 * B7 * L7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="6">
         <f t="shared" ref="N7:N10" si="14">I7 * C7 * L7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="6">
         <f t="shared" ref="O7:O10" si="15" xml:space="preserve"> E7 + M7</f>
         <v>0.3</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="6">
         <f t="shared" ref="P7:P10" si="16">F7 + N7</f>
         <v>0</v>
       </c>
@@ -934,48 +962,48 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G8" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="G8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="6">
         <v>-1</v>
       </c>
-      <c r="I8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="11"/>
         <v>-0.2</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="6">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="6">
         <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -991,105 +1019,105 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G9" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="G9" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="6">
         <v>-1</v>
       </c>
-      <c r="I9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="I9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="11"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="6">
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="6">
         <f t="shared" si="13"/>
         <v>-0.1</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="6">
         <f t="shared" si="15"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="9"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G10" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="G10" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="5">
         <v>-1</v>
       </c>
-      <c r="I10" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="I10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="5">
         <f t="shared" si="15"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -1107,48 +1135,48 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="6">
         <f t="shared" ref="E11:E14" si="17">O10</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="6">
         <f t="shared" ref="F11:F14" si="18">P10</f>
         <v>0</v>
       </c>
-      <c r="G11" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="G11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="6">
         <v>-1</v>
       </c>
-      <c r="I11" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="I11" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" ref="J11:J14" si="19">(B11*E11) + (C11*F11)+(G11*H11)</f>
         <v>-0.2</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="6">
         <f t="shared" ref="L11:L14" si="20">D11 - K11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="6">
         <f t="shared" ref="M11:M14" si="21">I11 * B11 * L11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="6">
         <f t="shared" ref="N11:N14" si="22">I11 * C11 * L11</f>
         <v>0</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="6">
         <f t="shared" ref="O11:O14" si="23" xml:space="preserve"> E11 + M11</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="6">
         <f t="shared" ref="P11:P14" si="24">F11 + N11</f>
         <v>0</v>
       </c>
@@ -1164,48 +1192,48 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <f t="shared" si="17"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="6">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G12" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="G12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="6">
         <v>-1</v>
       </c>
-      <c r="I12" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J12" s="10">
+      <c r="I12" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="19"/>
         <v>-0.2</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="6">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="6">
         <f t="shared" si="23"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="6">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -1221,105 +1249,105 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="6">
         <f t="shared" si="17"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="6">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G13" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="G13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="6">
         <v>-1</v>
       </c>
-      <c r="I13" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="I13" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="6">
         <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="6">
         <f t="shared" si="21"/>
         <v>-0.1</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="6">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="6">
         <f t="shared" si="23"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="6">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="17"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G14" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="G14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="5">
         <v>-1</v>
       </c>
-      <c r="I14" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="I14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="19"/>
         <v>-0.10000000000000003</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="5">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="5">
         <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="5">
         <f t="shared" si="22"/>
         <v>0.1</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="5">
         <f t="shared" si="23"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="5">
         <f t="shared" si="24"/>
         <v>0.1</v>
       </c>
@@ -1337,48 +1365,48 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="6">
         <f t="shared" ref="E15:E18" si="25">O14</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <f t="shared" ref="F15:F18" si="26">P14</f>
         <v>0.1</v>
       </c>
-      <c r="G15" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="G15" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="6">
         <v>-1</v>
       </c>
-      <c r="I15" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="I15" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="6">
         <f t="shared" ref="J15:J18" si="27">(B15*E15) + (C15*F15)+(G15*H15)</f>
         <v>-0.2</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="6">
         <f t="shared" ref="L15:L18" si="28">D15 - K15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="6">
         <f t="shared" ref="M15:M18" si="29">I15 * B15 * L15</f>
         <v>0</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="6">
         <f t="shared" ref="N15:N18" si="30">I15 * C15 * L15</f>
         <v>0</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="6">
         <f t="shared" ref="O15:O18" si="31" xml:space="preserve"> E15 + M15</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="6">
         <f t="shared" ref="P15:P18" si="32">F15 + N15</f>
         <v>0.1</v>
       </c>
@@ -1394,48 +1422,48 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <f t="shared" si="25"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="6">
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="G16" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="G16" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H16" s="6">
         <v>-1</v>
       </c>
-      <c r="I16" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="I16" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="6">
         <f t="shared" si="27"/>
         <v>-0.1</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="6">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="6">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="6">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="6">
         <f t="shared" si="31"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="6">
         <f t="shared" si="32"/>
         <v>0.1</v>
       </c>
@@ -1451,105 +1479,105 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="6">
         <f t="shared" si="25"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="6">
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="G17" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="G17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="6">
         <v>-1</v>
       </c>
-      <c r="I17" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="I17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="6">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="6">
         <f t="shared" si="28"/>
         <v>-1</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="6">
         <f t="shared" si="29"/>
         <v>-0.1</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="6">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="6">
         <f t="shared" si="31"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="6">
         <f t="shared" si="32"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="25"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="5">
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="G18" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H18" s="9">
+      <c r="G18" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="5">
         <v>-1</v>
       </c>
-      <c r="I18" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="I18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="5">
         <f t="shared" si="31"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="5">
         <f t="shared" si="32"/>
         <v>0.1</v>
       </c>
@@ -1567,48 +1595,48 @@
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <f t="shared" ref="E19:E22" si="33">O18</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="6">
         <f t="shared" ref="F19:F22" si="34">P18</f>
         <v>0.1</v>
       </c>
-      <c r="G19" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="G19" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="6">
         <v>-1</v>
       </c>
-      <c r="I19" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J19" s="10">
+      <c r="I19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="6">
         <f t="shared" ref="J19:J22" si="35">(B19*E19) + (C19*F19)+(G19*H19)</f>
         <v>-0.2</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="9">
         <f t="shared" ref="L19:L22" si="36">D19 - K19</f>
         <v>0</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="6">
         <f t="shared" ref="M19:M22" si="37">I19 * B19 * L19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="6">
         <f t="shared" ref="N19:N22" si="38">I19 * C19 * L19</f>
         <v>0</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="6">
         <f t="shared" ref="O19:O22" si="39" xml:space="preserve"> E19 + M19</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="6">
         <f t="shared" ref="P19:P22" si="40">F19 + N19</f>
         <v>0.1</v>
       </c>
@@ -1624,48 +1652,48 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="6">
         <f t="shared" si="33"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="6">
         <f t="shared" si="34"/>
         <v>0.1</v>
       </c>
-      <c r="G20" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H20" s="10">
+      <c r="G20" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="6">
         <v>-1</v>
       </c>
-      <c r="I20" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J20" s="10">
+      <c r="I20" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="6">
         <f t="shared" si="35"/>
         <v>-0.1</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="6">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="6">
         <f t="shared" si="39"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="6">
         <f t="shared" si="40"/>
         <v>0.1</v>
       </c>
@@ -1681,105 +1709,105 @@
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <f t="shared" si="33"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="6">
         <f t="shared" si="34"/>
         <v>0.1</v>
       </c>
-      <c r="G21" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="G21" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="6">
         <v>-1</v>
       </c>
-      <c r="I21" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J21" s="10">
+      <c r="I21" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J21" s="6">
         <f t="shared" si="35"/>
         <v>-0.10000000000000003</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="6">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="6">
         <f t="shared" si="39"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="6">
         <f t="shared" si="40"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="33"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="5">
         <f t="shared" si="34"/>
         <v>0.1</v>
       </c>
-      <c r="G22" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="G22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H22" s="5">
         <v>-1</v>
       </c>
-      <c r="I22" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="J22" s="9">
+      <c r="I22" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="5">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="5">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="5">
         <f t="shared" si="39"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="5">
         <f t="shared" si="40"/>
         <v>0.1</v>
       </c>
@@ -2317,7 +2345,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2332,84 +2360,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="5"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="4" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2499,31 +2527,31 @@
         <v>0.1</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J22" si="0">(B4*E4) + (C4*F4)+(G4*H4)</f>
+        <f t="shared" ref="J4:J18" si="0">(B4*E4) + (C4*F4)+(G4*H4)</f>
         <v>-0.30000000000000004</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K22" si="1">IF(J4&lt;0,0,1)</f>
+        <f t="shared" ref="K4:K18" si="1">IF(J4&lt;0,0,1)</f>
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L22" si="2">D4 - K4</f>
+        <f t="shared" ref="L4:L18" si="2">D4 - K4</f>
         <v>1</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M4:M22" si="3">I4 * B4 * L4</f>
+        <f t="shared" ref="M4:M18" si="3">I4 * B4 * L4</f>
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N22" si="4">I4 * C4 * L4</f>
+        <f t="shared" ref="N4:N18" si="4">I4 * C4 * L4</f>
         <v>0.1</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O22" si="5" xml:space="preserve"> E4 + M4</f>
+        <f t="shared" ref="O4:O18" si="5" xml:space="preserve"> E4 + M4</f>
         <v>0.3</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P22" si="6">F4 + N4</f>
+        <f t="shared" ref="P4:P18" si="6">F4 + N4</f>
         <v>0</v>
       </c>
     </row>
@@ -2585,58 +2613,58 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" ref="E6:F21" si="7">O5</f>
-        <v>0.3</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:F18" si="7">O5</f>
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G6" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="G6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="5">
         <v>-1</v>
       </c>
-      <c r="I6" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="I6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="5">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2654,48 +2682,48 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G7" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="G7" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="6">
         <v>-1</v>
       </c>
-      <c r="I7" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="6">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2711,48 +2739,48 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G8" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="G8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="6">
         <v>-1</v>
       </c>
-      <c r="I8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="6">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="6">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="6">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
@@ -2768,105 +2796,105 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="G9" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="G9" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="6">
         <v>-1</v>
       </c>
-      <c r="I9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="I9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="0"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="6">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="6">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="5">
         <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="G10" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="G10" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="5">
         <v>-1</v>
       </c>
-      <c r="I10" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="I10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="5">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="5">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
@@ -2884,48 +2912,48 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="6">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="6">
         <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="G11" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="G11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="6">
         <v>-1</v>
       </c>
-      <c r="I11" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="I11" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="6">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="6">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
@@ -2941,48 +2969,48 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="6">
         <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="G12" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="G12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="6">
         <v>-1</v>
       </c>
-      <c r="I12" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J12" s="10">
+      <c r="I12" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="6">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="6">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="6">
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
@@ -2998,105 +3026,105 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="6">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="6">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="G13" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="G13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="6">
         <v>-1</v>
       </c>
-      <c r="I13" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="I13" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="0"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="6">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="6">
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="5">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="G14" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="G14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="5">
         <v>-1</v>
       </c>
-      <c r="I14" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="I14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="5">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="5">
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
@@ -3114,48 +3142,48 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="6">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="G15" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="G15" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="6">
         <v>-1</v>
       </c>
-      <c r="I15" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="I15" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="6">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="6">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="6">
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
@@ -3171,48 +3199,48 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="6">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="G16" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="G16" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H16" s="6">
         <v>-1</v>
       </c>
-      <c r="I16" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="I16" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="6">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="6">
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
@@ -3228,105 +3256,105 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="6">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="6">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="G17" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="G17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="6">
         <v>-1</v>
       </c>
-      <c r="I17" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="I17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="6">
         <f t="shared" si="0"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="6">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="6">
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="5">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="G18" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H18" s="9">
+      <c r="G18" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="5">
         <v>-1</v>
       </c>
-      <c r="I18" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="I18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="5">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="5">
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
@@ -3339,6 +3367,18 @@
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
+      <c r="D20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3347,15 +3387,49 @@
       <c r="B21" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D21" s="15">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <f>IF(AND(D21=0,E21=0), 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" ref="F22:F24" si="8">IF(AND(D22=0,E22=0), 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="23" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="D23" s="15">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3369,9 +3443,16 @@
     </row>
     <row r="24" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>

--- a/perceptron/perceptron.xlsx
+++ b/perceptron/perceptron.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isiswauitmedu-my.sharepoint.com/personal/2021119947_isiswa_uitm_edu_my/Documents/Sem 4/ISP560/intro-to-machine-learning/perceptron/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{CC109C8B-29DC-CF46-9515-17E0F0A61A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8776C886-C667-FB42-9DC0-99FC1A4688D6}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{CC109C8B-29DC-CF46-9515-17E0F0A61A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74628E87-52EF-7545-AF0B-97E09C9C4A68}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C532F2F6-FEB9-5F4B-A739-20C274AE46DD}"/>
+    <workbookView xWindow="-38400" yWindow="-5440" windowWidth="19200" windowHeight="19240" activeTab="1" xr2:uid="{C532F2F6-FEB9-5F4B-A739-20C274AE46DD}"/>
   </bookViews>
   <sheets>
     <sheet name="AND operation" sheetId="1" r:id="rId1"/>
@@ -228,6 +228,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -238,16 +248,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,30 +583,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16"/>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="16" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -615,17 +615,17 @@
       <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="12"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -641,10 +641,10 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2345,7 +2345,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2360,30 +2360,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16"/>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="16" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -2392,17 +2392,17 @@
       <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="12"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2418,10 +2418,10 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2455,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F3" s="1">
         <v>-0.1</v>
       </c>
       <c r="G3" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="1">
         <v>-1</v>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="J3" s="1">
         <f>(B3*E3) + (C3*F3)+(G3*H3)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="K3" s="1">
         <f>IF(J3&lt;0,0,1)</f>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="O3" s="1">
         <f xml:space="preserve"> E3 + M3</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P3" s="1">
         <f>F3 + N3</f>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="E4" s="1">
         <f>O3</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="1">
         <f>P3</f>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="O4" s="1">
         <f t="shared" ref="O4:O18" si="5" xml:space="preserve"> E4 + M4</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" ref="P4:P18" si="6">F4 + N4</f>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="E5" s="1">
         <f>O4</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="1">
         <f>P4</f>
@@ -2584,11 +2584,11 @@
         <v>0.1</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="0"/>
-        <v>9.9999999999999978E-2</v>
+        <f>(B5*E5) + (C5*F5)+(G5*H5)</f>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(J5&lt;0,0,1)</f>
         <v>1</v>
       </c>
       <c r="L5" s="1">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="O5" s="1">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F18" si="7">O5</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="7"/>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="J6" s="5">
         <f t="shared" si="0"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="1"/>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="O6" s="5">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P6" s="5">
         <f t="shared" si="6"/>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="E7" s="6">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="7"/>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="O7" s="6">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="6"/>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="E8" s="6">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="7"/>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="O8" s="6">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="6"/>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="E9" s="6">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="7"/>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" si="0"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="1"/>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="O9" s="6">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="6"/>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="7"/>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.10000000000000003</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" si="1"/>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="O10" s="5">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="6"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="7"/>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="O11" s="6">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="6"/>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="7"/>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="O12" s="6">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="6"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E13" s="6">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="7"/>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" si="0"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="1"/>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="O13" s="6">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="6"/>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="7"/>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="J14" s="5">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" si="1"/>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="O14" s="5">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" si="6"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="E15" s="6">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="7"/>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="O15" s="6">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="6"/>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="E16" s="6">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="7"/>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="O16" s="6">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="6"/>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="E17" s="6">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="7"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="1"/>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="O17" s="6">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="6"/>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="7"/>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="J18" s="5">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" si="1"/>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="O18" s="5">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P18" s="5">
         <f t="shared" si="6"/>
@@ -3367,16 +3367,16 @@
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3387,13 +3387,13 @@
       <c r="B21" s="1">
         <v>0.1</v>
       </c>
-      <c r="D21" s="15">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
         <f>IF(AND(D21=0,E21=0), 0, 1)</f>
         <v>0</v>
       </c>
@@ -3402,13 +3402,13 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="15">
-        <v>1</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
         <f t="shared" ref="F22:F24" si="8">IF(AND(D22=0,E22=0), 0, 1)</f>
         <v>1</v>
       </c>
@@ -3420,13 +3420,13 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="15">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16">
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3443,13 +3443,13 @@
     </row>
     <row r="24" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
-      <c r="D24" s="15">
-        <v>1</v>
-      </c>
-      <c r="E24" s="16">
-        <v>1</v>
-      </c>
-      <c r="F24" s="16">
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>

--- a/perceptron/perceptron.xlsx
+++ b/perceptron/perceptron.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isiswauitmedu-my.sharepoint.com/personal/2021119947_isiswa_uitm_edu_my/Documents/Sem 4/ISP560/intro-to-machine-learning/perceptron/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{CC109C8B-29DC-CF46-9515-17E0F0A61A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74628E87-52EF-7545-AF0B-97E09C9C4A68}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{CC109C8B-29DC-CF46-9515-17E0F0A61A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2F150B3-3C93-CC44-AC6D-635EDDA5E03B}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5440" windowWidth="19200" windowHeight="19240" activeTab="1" xr2:uid="{C532F2F6-FEB9-5F4B-A739-20C274AE46DD}"/>
+    <workbookView xWindow="-38400" yWindow="-5940" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{C532F2F6-FEB9-5F4B-A739-20C274AE46DD}"/>
   </bookViews>
   <sheets>
     <sheet name="AND operation" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I27" sqref="I27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,31 +750,31 @@
         <v>0.1</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J6" si="0">(B4*E4) + (C4*F4)+(G4*H4)</f>
+        <f>(B4*E4) + (C4*F4)+(G4*H4)</f>
         <v>-0.30000000000000004</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K22" si="1">IF(J4&lt;0,0,1)</f>
+        <f t="shared" ref="K4:K22" si="0">IF(J4&lt;0,0,1)</f>
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L6" si="2">D4 - K4</f>
+        <f t="shared" ref="L4:L6" si="1">D4 - K4</f>
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M4:M6" si="3">I4 * B4 * L4</f>
+        <f t="shared" ref="M4:M6" si="2">I4 * B4 * L4</f>
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N6" si="4">I4 * C4 * L4</f>
+        <f t="shared" ref="N4:N6" si="3">I4 * C4 * L4</f>
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O6" si="5" xml:space="preserve"> E4 + M4</f>
+        <f t="shared" ref="O4:O6" si="4" xml:space="preserve"> E4 + M4</f>
         <v>0.3</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P6" si="6">F4 + N4</f>
+        <f t="shared" ref="P4:P6" si="5">F4 + N4</f>
         <v>-0.1</v>
       </c>
     </row>
@@ -807,31 +807,31 @@
         <v>0.1</v>
       </c>
       <c r="J5" s="1">
+        <f t="shared" ref="J5:J22" si="6">(B5*E5) + (C5*F5)+(G5*H5)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="1">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M5" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="N5" s="1">
         <f t="shared" si="3"/>
-        <v>-0.1</v>
-      </c>
-      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="P5" s="1">
         <f t="shared" si="5"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="6"/>
         <v>-0.1</v>
       </c>
     </row>
@@ -864,31 +864,31 @@
         <v>0.1</v>
       </c>
       <c r="J6" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.10000000000000003</v>
+      </c>
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
-        <v>-0.10000000000000003</v>
-      </c>
-      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="5">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="O6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="P6" s="5">
         <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="P6" s="5">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -922,32 +922,32 @@
       <c r="I7" s="6">
         <v>0.1</v>
       </c>
-      <c r="J7" s="6">
-        <f t="shared" ref="J7:J10" si="11">(B7*E7) + (C7*F7)+(G7*H7)</f>
+      <c r="J7" s="1">
+        <f t="shared" si="6"/>
         <v>-0.2</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" ref="L7:L10" si="12">D7 - K7</f>
+        <f t="shared" ref="L7:L10" si="11">D7 - K7</f>
         <v>0</v>
       </c>
       <c r="M7" s="6">
-        <f t="shared" ref="M7:M10" si="13">I7 * B7 * L7</f>
+        <f t="shared" ref="M7:M10" si="12">I7 * B7 * L7</f>
         <v>0</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" ref="N7:N10" si="14">I7 * C7 * L7</f>
+        <f t="shared" ref="N7:N10" si="13">I7 * C7 * L7</f>
         <v>0</v>
       </c>
       <c r="O7" s="6">
-        <f t="shared" ref="O7:O10" si="15" xml:space="preserve"> E7 + M7</f>
+        <f t="shared" ref="O7:O10" si="14" xml:space="preserve"> E7 + M7</f>
         <v>0.3</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" ref="P7:P10" si="16">F7 + N7</f>
+        <f t="shared" ref="P7:P10" si="15">F7 + N7</f>
         <v>0</v>
       </c>
     </row>
@@ -979,32 +979,32 @@
       <c r="I8" s="6">
         <v>0.1</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.2</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
         <f t="shared" si="11"/>
-        <v>-0.2</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P8" s="6">
         <f t="shared" si="15"/>
-        <v>0.3</v>
-      </c>
-      <c r="P8" s="6">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -1036,32 +1036,32 @@
       <c r="I9" s="6">
         <v>0.1</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="1">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
         <f t="shared" si="11"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="6">
         <f t="shared" si="12"/>
-        <v>-1</v>
-      </c>
-      <c r="M9" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="N9" s="6">
         <f t="shared" si="13"/>
-        <v>-0.1</v>
-      </c>
-      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="P9" s="6">
         <f t="shared" si="15"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="P9" s="6">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -1094,31 +1094,31 @@
         <v>0.1</v>
       </c>
       <c r="J10" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="P10" s="5">
         <f t="shared" si="15"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -1136,11 +1136,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" ref="E11:E14" si="17">O10</f>
+        <f t="shared" ref="E11:E14" si="16">O10</f>
         <v>0.19999999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" ref="F11:F14" si="18">P10</f>
+        <f t="shared" ref="F11:F14" si="17">P10</f>
         <v>0</v>
       </c>
       <c r="G11" s="6">
@@ -1152,32 +1152,32 @@
       <c r="I11" s="6">
         <v>0.1</v>
       </c>
-      <c r="J11" s="6">
-        <f t="shared" ref="J11:J14" si="19">(B11*E11) + (C11*F11)+(G11*H11)</f>
+      <c r="J11" s="1">
+        <f t="shared" si="6"/>
         <v>-0.2</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" ref="L11:L14" si="20">D11 - K11</f>
+        <f t="shared" ref="L11:L14" si="18">D11 - K11</f>
         <v>0</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" ref="M11:M14" si="21">I11 * B11 * L11</f>
+        <f t="shared" ref="M11:M14" si="19">I11 * B11 * L11</f>
         <v>0</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" ref="N11:N14" si="22">I11 * C11 * L11</f>
+        <f t="shared" ref="N11:N14" si="20">I11 * C11 * L11</f>
         <v>0</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" ref="O11:O14" si="23" xml:space="preserve"> E11 + M11</f>
+        <f t="shared" ref="O11:O14" si="21" xml:space="preserve"> E11 + M11</f>
         <v>0.19999999999999998</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" ref="P11:P14" si="24">F11 + N11</f>
+        <f t="shared" ref="P11:P14" si="22">F11 + N11</f>
         <v>0</v>
       </c>
     </row>
@@ -1193,11 +1193,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="6">
+        <f t="shared" si="16"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="F12" s="6">
         <f t="shared" si="17"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G12" s="6">
@@ -1209,32 +1209,32 @@
       <c r="I12" s="6">
         <v>0.1</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.2</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
         <f t="shared" si="19"/>
-        <v>-0.2</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M12" s="6">
+      <c r="O12" s="6">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="P12" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <f t="shared" si="23"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="P12" s="6">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -1250,11 +1250,11 @@
         <v>0</v>
       </c>
       <c r="E13" s="6">
+        <f t="shared" si="16"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="F13" s="6">
         <f t="shared" si="17"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G13" s="6">
@@ -1266,32 +1266,32 @@
       <c r="I13" s="6">
         <v>0.1</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="M13" s="6">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="N13" s="6">
         <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
         <f t="shared" si="21"/>
-        <v>-0.1</v>
-      </c>
-      <c r="N13" s="6">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="P13" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="23"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="P13" s="6">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -1307,11 +1307,11 @@
         <v>1</v>
       </c>
       <c r="E14" s="5">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="F14" s="5">
         <f t="shared" si="17"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G14" s="5">
@@ -1324,31 +1324,31 @@
         <v>0.1</v>
       </c>
       <c r="J14" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.10000000000000003</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
         <f t="shared" si="19"/>
-        <v>-0.10000000000000003</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="5">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O14" s="5">
         <f t="shared" si="21"/>
-        <v>0.1</v>
-      </c>
-      <c r="N14" s="5">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="P14" s="5">
         <f t="shared" si="22"/>
-        <v>0.1</v>
-      </c>
-      <c r="O14" s="5">
-        <f t="shared" si="23"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="P14" s="5">
-        <f t="shared" si="24"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1366,11 +1366,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" ref="E15:E18" si="25">O14</f>
+        <f t="shared" ref="E15:E18" si="23">O14</f>
         <v>0.19999999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15:F18" si="26">P14</f>
+        <f t="shared" ref="F15:F18" si="24">P14</f>
         <v>0.1</v>
       </c>
       <c r="G15" s="6">
@@ -1382,32 +1382,32 @@
       <c r="I15" s="6">
         <v>0.1</v>
       </c>
-      <c r="J15" s="6">
-        <f t="shared" ref="J15:J18" si="27">(B15*E15) + (C15*F15)+(G15*H15)</f>
+      <c r="J15" s="1">
+        <f t="shared" si="6"/>
         <v>-0.2</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" ref="L15:L18" si="28">D15 - K15</f>
+        <f t="shared" ref="L15:L18" si="25">D15 - K15</f>
         <v>0</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" ref="M15:M18" si="29">I15 * B15 * L15</f>
+        <f t="shared" ref="M15:M18" si="26">I15 * B15 * L15</f>
         <v>0</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" ref="N15:N18" si="30">I15 * C15 * L15</f>
+        <f t="shared" ref="N15:N18" si="27">I15 * C15 * L15</f>
         <v>0</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" ref="O15:O18" si="31" xml:space="preserve"> E15 + M15</f>
+        <f t="shared" ref="O15:O18" si="28" xml:space="preserve"> E15 + M15</f>
         <v>0.19999999999999998</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" ref="P15:P18" si="32">F15 + N15</f>
+        <f t="shared" ref="P15:P18" si="29">F15 + N15</f>
         <v>0.1</v>
       </c>
     </row>
@@ -1423,11 +1423,11 @@
         <v>0</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.1</v>
       </c>
       <c r="G16" s="6">
@@ -1439,32 +1439,32 @@
       <c r="I16" s="6">
         <v>0.1</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
         <f t="shared" si="27"/>
-        <v>-0.1</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="P16" s="6">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <f t="shared" si="31"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="P16" s="6">
-        <f t="shared" si="32"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1480,11 +1480,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.1</v>
       </c>
       <c r="G17" s="6">
@@ -1496,32 +1496,32 @@
       <c r="I17" s="6">
         <v>0.1</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="26"/>
+        <v>-0.1</v>
+      </c>
+      <c r="N17" s="6">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K17" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L17" s="6">
+      <c r="O17" s="6">
         <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="M17" s="6">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="P17" s="6">
         <f t="shared" si="29"/>
-        <v>-0.1</v>
-      </c>
-      <c r="N17" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="6">
-        <f t="shared" si="31"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="P17" s="6">
-        <f t="shared" si="32"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1537,11 +1537,11 @@
         <v>1</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.1</v>
       </c>
       <c r="G18" s="5">
@@ -1554,31 +1554,31 @@
         <v>0.1</v>
       </c>
       <c r="J18" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="5">
+      <c r="O18" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="P18" s="5">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="5">
-        <f t="shared" si="31"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="P18" s="5">
-        <f t="shared" si="32"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1596,11 +1596,11 @@
         <v>0</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" ref="E19:E22" si="33">O18</f>
+        <f t="shared" ref="E19:E22" si="30">O18</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:F22" si="34">P18</f>
+        <f t="shared" ref="F19:F22" si="31">P18</f>
         <v>0.1</v>
       </c>
       <c r="G19" s="6">
@@ -1612,32 +1612,32 @@
       <c r="I19" s="6">
         <v>0.1</v>
       </c>
-      <c r="J19" s="6">
-        <f t="shared" ref="J19:J22" si="35">(B19*E19) + (C19*F19)+(G19*H19)</f>
+      <c r="J19" s="1">
+        <f t="shared" si="6"/>
         <v>-0.2</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19" s="9">
-        <f t="shared" ref="L19:L22" si="36">D19 - K19</f>
+        <f t="shared" ref="L19:L22" si="32">D19 - K19</f>
         <v>0</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" ref="M19:M22" si="37">I19 * B19 * L19</f>
+        <f t="shared" ref="M19:M22" si="33">I19 * B19 * L19</f>
         <v>0</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" ref="N19:N22" si="38">I19 * C19 * L19</f>
+        <f t="shared" ref="N19:N22" si="34">I19 * C19 * L19</f>
         <v>0</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" ref="O19:O22" si="39" xml:space="preserve"> E19 + M19</f>
+        <f t="shared" ref="O19:O22" si="35" xml:space="preserve"> E19 + M19</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" ref="P19:P22" si="40">F19 + N19</f>
+        <f t="shared" ref="P19:P22" si="36">F19 + N19</f>
         <v>0.1</v>
       </c>
     </row>
@@ -1653,11 +1653,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>0.1</v>
       </c>
       <c r="G20" s="6">
@@ -1669,32 +1669,32 @@
       <c r="I20" s="6">
         <v>0.1</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
         <f t="shared" si="35"/>
-        <v>-0.1</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="P20" s="6">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" si="39"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="P20" s="6">
-        <f t="shared" si="40"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1710,11 +1710,11 @@
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>0.1</v>
       </c>
       <c r="G21" s="6">
@@ -1726,32 +1726,32 @@
       <c r="I21" s="6">
         <v>0.1</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.10000000000000003</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
         <f t="shared" si="35"/>
-        <v>-0.10000000000000003</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="P21" s="6">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <f t="shared" si="39"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="P21" s="6">
-        <f t="shared" si="40"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1767,11 +1767,11 @@
         <v>1</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>0.1</v>
       </c>
       <c r="G22" s="5">
@@ -1784,31 +1784,31 @@
         <v>0.1</v>
       </c>
       <c r="J22" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="9">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="P22" s="5">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="5">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="5">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="5">
-        <f t="shared" si="39"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="P22" s="5">
-        <f t="shared" si="40"/>
         <v>0.1</v>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2584,7 +2584,7 @@
         <v>0.1</v>
       </c>
       <c r="J5" s="1">
-        <f>(B5*E5) + (C5*F5)+(G5*H5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
@@ -2699,7 +2699,7 @@
       <c r="I7" s="6">
         <v>0.1</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="I8" s="6">
         <v>0.1</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
@@ -2813,7 +2813,7 @@
       <c r="I9" s="6">
         <v>0.1</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2929,7 +2929,7 @@
       <c r="I11" s="6">
         <v>0.1</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="1">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
@@ -2986,7 +2986,7 @@
       <c r="I12" s="6">
         <v>0.1</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="1">
         <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
@@ -3043,7 +3043,7 @@
       <c r="I13" s="6">
         <v>0.1</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="I15" s="6">
         <v>0.1</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="1">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="I16" s="6">
         <v>0.1</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="I17" s="6">
         <v>0.1</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
